--- a/test_marking/neww_file.xlsx
+++ b/test_marking/neww_file.xlsx
@@ -106,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -131,12 +131,6 @@
         <bgColor rgb="007CFC00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -152,7 +146,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -304,9 +298,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,13 +677,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L210"/>
+  <dimension ref="A1:L210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B122" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
     <col width="9.1640625" customWidth="1" style="58" min="1" max="2"/>
     <col width="10.5" customWidth="1" style="11" min="3" max="3"/>
@@ -706,6 +697,11 @@
   </cols>
   <sheetData>
     <row r="1" ht="85" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Total: 35</t>
+        </is>
+      </c>
       <c r="D1" s="31" t="inlineStr">
         <is>
           <t>Please answer each question by typing 1 next to the correct answer under the column headed with Answer. Please do not  make any changes in Column A, C, and D. In column B the only change you can make is inserting your answer by typing 1 next to the answer you chose. You may use other columns in this sheet  or insert other sheets to work out your answers specific questions.</t>
@@ -2188,7 +2184,7 @@
           <t>The mean of IWM return is</t>
         </is>
       </c>
-      <c r="E140" s="75" t="n">
+      <c r="E140" s="68" t="n">
         <v>0.0975764059487149</v>
       </c>
       <c r="F140" s="69" t="inlineStr">
@@ -2231,7 +2227,7 @@
           <t>The mean of EEM return is</t>
         </is>
       </c>
-      <c r="E141" s="76" t="n">
+      <c r="E141" s="70" t="n">
         <v>0.1113438409852452</v>
       </c>
       <c r="F141" s="71" t="inlineStr">
@@ -2258,7 +2254,7 @@
           <t>The standard deviation of IWM return is</t>
         </is>
       </c>
-      <c r="E142" s="76" t="n">
+      <c r="E142" s="70" t="n">
         <v>0.1889918706810838</v>
       </c>
       <c r="F142" s="37" t="n"/>
@@ -2289,7 +2285,7 @@
           <t>The standard deviation of EEM reurn</t>
         </is>
       </c>
-      <c r="E143" s="76" t="n">
+      <c r="E143" s="70" t="n">
         <v>0.2929767076175825</v>
       </c>
       <c r="F143" s="37">
@@ -2436,7 +2432,7 @@
           <t xml:space="preserve"> IWM</t>
         </is>
       </c>
-      <c r="E149" s="77" t="n">
+      <c r="E149" s="72" t="n">
         <v>3443.360825526332</v>
       </c>
       <c r="H149" s="3" t="n">
@@ -2466,7 +2462,7 @@
           <t>EEM</t>
         </is>
       </c>
-      <c r="E150" s="77" t="n">
+      <c r="E150" s="72" t="n">
         <v>3049.195815353565</v>
       </c>
       <c r="H150" s="3" t="n">
@@ -2681,7 +2677,7 @@
           <t>The annual growth of your investment in IWM is</t>
         </is>
       </c>
-      <c r="E158" s="76" t="n">
+      <c r="E158" s="70" t="n">
         <v>0.08034236838451125</v>
       </c>
     </row>
@@ -2694,7 +2690,7 @@
           <t>The annual growth of your investment in EEM is</t>
         </is>
       </c>
-      <c r="E159" s="76" t="n">
+      <c r="E159" s="70" t="n">
         <v>0.07216489206765164</v>
       </c>
     </row>
